--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,28 +607,108 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>825</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" t="n">
         <v>14000</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>15000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>14500</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>725</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44708</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,28 +687,108 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>725</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
+      <c r="N5" t="n">
         <v>16000</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>17000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>16500</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>825</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44708</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44708</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44708</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44761</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>16000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44708</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44708</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,31 +764,111 @@
         </is>
       </c>
       <c r="M5" t="n">
+        <v>80</v>
+      </c>
+      <c r="N5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>100</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>14000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>15000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>14500</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>725</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T6" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44761</v>
+        <v>44708</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>16000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44761</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44792</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44761</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,28 +847,108 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1025</v>
+      </c>
+      <c r="T6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" t="n">
         <v>16000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>17000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>16500</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>825</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44798</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,31 +924,111 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>80</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>21500</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1075</v>
+      </c>
+      <c r="T7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>100</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>16000</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>17000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>16500</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S8" t="n">
         <v>825</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T8" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44708</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44798</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44761</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44761</v>
+        <v>44708</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44798</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44798</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44798</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44761</v>
+        <v>44708</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44708</v>
+        <v>44761</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44792</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44761</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44761</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44792</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,6 +1032,86 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>80</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>22250</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>1112</v>
+      </c>
+      <c r="T9" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>21625</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>725</v>
+        <v>1081</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44792</v>
+        <v>44357</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44792</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,31 +1084,111 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16500</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>825</v>
+      </c>
+      <c r="T9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>80</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>20000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>23000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>22250</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>1112</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44798</v>
+        <v>44792</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>21000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>22250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44761</v>
+        <v>44708</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>44798</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -853,7 +853,7 @@
         <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44792</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>21625</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44792</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1112</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44708</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44792</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44798</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -853,7 +853,7 @@
         <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>16000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44761</v>
+        <v>44890</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>1112</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44357</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>14500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>725</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44792</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44798</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44708</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44792</v>
+        <v>44890</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>21625</v>
+        <v>16500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1081</v>
+        <v>825</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44761</v>
+        <v>44708</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1112</v>
+        <v>1075</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44357</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>14500</v>
+        <v>21625</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>725</v>
+        <v>1081</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44792</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44798</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44890</v>
+        <v>44792</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1112</v>
+        <v>1075</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>16500</v>
+        <v>21625</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>825</v>
+        <v>1081</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44708</v>
+        <v>44761</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44761</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44357</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>14500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>725</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44792</v>
+        <v>44761</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>21625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>1081</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44761</v>
+        <v>44792</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>16500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>825</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44761</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>21000</v>
@@ -613,7 +613,7 @@
         <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44890</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>22250</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>1112</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>21625</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44792</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44761</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44792</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44890</v>
+        <v>44761</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>22250</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1112</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>21625</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1081</v>
+        <v>1112</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>21625</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>725</v>
+        <v>1081</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
         <v>16000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44798</v>
+        <v>44792</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
         <v>21000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44761</v>
+        <v>44798</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>16000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>21625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>1081</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44761</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>44708</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>80</v>
       </c>
       <c r="N6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O6" t="n">
         <v>21000</v>
       </c>
-      <c r="O6" t="n">
-        <v>22000</v>
-      </c>
       <c r="P6" t="n">
-        <v>21625</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1081</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44761</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44798</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44893</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>21625</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1081</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44708</v>
+        <v>44761</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44357</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>21625</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>725</v>
+        <v>1081</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44761</v>
+        <v>44792</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44792</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44798</v>
+        <v>44708</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O10" t="n">
         <v>21000</v>
       </c>
-      <c r="O10" t="n">
-        <v>22000</v>
-      </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44798</v>
+        <v>44761</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O2" t="n">
         <v>21000</v>
       </c>
-      <c r="O2" t="n">
-        <v>22000</v>
-      </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44798</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44761</v>
+        <v>44890</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>22250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1112</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44893</v>
+        <v>44708</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O7" t="n">
         <v>21000</v>
       </c>
-      <c r="O7" t="n">
-        <v>22000</v>
-      </c>
       <c r="P7" t="n">
-        <v>21625</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1081</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44792</v>
+        <v>44357</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44792</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44708</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>21625</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1081</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44761</v>
+        <v>44792</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>22250</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44798</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44708</v>
+        <v>44798</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44357</v>
+        <v>44708</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44792</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44792</v>
+        <v>44798</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
         <v>21000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44890</v>
+        <v>44761</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>22250</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1112</v>
+        <v>1025</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>21625</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>1081</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44761</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44798</v>
+        <v>44357</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="P9" t="n">
-        <v>16500</v>
+        <v>22250</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
@@ -1173,7 +1173,7 @@
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44761</v>
+        <v>44533</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>21000</v>
@@ -693,7 +693,7 @@
         <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44792</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
@@ -1173,7 +1173,7 @@
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44792</v>
+        <v>44893</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>21000</v>
@@ -693,7 +693,7 @@
         <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44761</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44357</v>
+        <v>44708</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
@@ -1173,7 +1173,7 @@
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44792</v>
+        <v>45092</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>24333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>1217</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44792</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44761</v>
+        <v>44708</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44761</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44890</v>
+        <v>44357</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>22250</v>
+        <v>14500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1112</v>
+        <v>725</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,28 +1167,108 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>22250</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>1112</v>
+      </c>
+      <c r="T10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N11" t="n">
         <v>21000</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>22000</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>21625</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>1081</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44798</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44533</v>
+        <v>44708</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45092</v>
+        <v>44798</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24333</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1217</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44792</v>
+        <v>44893</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>21000</v>
@@ -773,7 +773,7 @@
         <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44761</v>
+        <v>45092</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20500</v>
+        <v>24333</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1025</v>
+        <v>1217</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44792</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44761</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O11" t="n">
         <v>21000</v>
       </c>
-      <c r="O11" t="n">
-        <v>22000</v>
-      </c>
       <c r="P11" t="n">
-        <v>21625</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1081</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44708</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20500</v>
+        <v>21625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1025</v>
+        <v>1081</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>21000</v>
@@ -773,7 +773,7 @@
         <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44357</v>
+        <v>44761</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P6" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44792</v>
+        <v>44708</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O8" t="n">
         <v>21000</v>
       </c>
-      <c r="O8" t="n">
-        <v>22000</v>
-      </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
         <v>16000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44761</v>
+        <v>44533</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44761</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44798</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44761</v>
+        <v>44798</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45092</v>
+        <v>44890</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>24333</v>
+        <v>22250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1217</v>
+        <v>1112</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>45092</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>16500</v>
+        <v>24333</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>825</v>
+        <v>1217</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44708</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1170,10 +1170,10 @@
         <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1112</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
         <v>16000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44761</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44893</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>21625</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1081</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>44798</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44792</v>
+        <v>44357</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44798</v>
+        <v>45092</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>24333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1075</v>
+        <v>1217</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>22250</v>
+        <v>21625</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44357</v>
+        <v>44708</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45092</v>
+        <v>44761</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>24333</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1217</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44708</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1170,10 +1170,10 @@
         <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>20500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1025</v>
+        <v>1112</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44792</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>21625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>1081</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44798</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44792</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>725</v>
+        <v>1075</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45092</v>
+        <v>44798</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>24333</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1217</v>
+        <v>1075</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>21625</v>
+        <v>22250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1081</v>
+        <v>1112</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44761</v>
+        <v>45092</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>24333</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>1217</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44708</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1170,10 +1170,10 @@
         <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>20500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1112</v>
+        <v>1025</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44792</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44708</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45092</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>24333</v>
+        <v>16500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1217</v>
+        <v>825</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44893</v>
+        <v>45092</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>21625</v>
+        <v>24333</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1081</v>
+        <v>1217</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44708</v>
+        <v>44320</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44761</v>
+        <v>44792</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>21625</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44792</v>
+        <v>44890</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44761</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44357</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>45092</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>16500</v>
+        <v>24333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>825</v>
+        <v>1217</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45092</v>
+        <v>44893</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>24333</v>
+        <v>21625</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1217</v>
+        <v>1081</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44792</v>
+        <v>44761</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O9" t="n">
         <v>21000</v>
       </c>
-      <c r="O9" t="n">
-        <v>22000</v>
-      </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>1112</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44890</v>
+        <v>44792</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>22250</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1112</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44761</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>44792</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44798</v>
+        <v>44533</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>825</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44708</v>
+        <v>44761</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44890</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>16500</v>
+        <v>22250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45092</v>
+        <v>44357</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>24333</v>
+        <v>14500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1217</v>
+        <v>725</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44320</v>
+        <v>44893</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>21625</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>1081</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44792</v>
+        <v>45092</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>21500</v>
+        <v>24333</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1075</v>
+        <v>1217</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44798</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1173,7 +1173,7 @@
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44890</v>
+        <v>44708</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1250,10 +1250,10 @@
         <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P11" t="n">
-        <v>22250</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1112</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44792</v>
+        <v>44893</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
         <v>21000</v>
@@ -613,7 +613,7 @@
         <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44533</v>
+        <v>45092</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>16500</v>
+        <v>24333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>825</v>
+        <v>1217</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P8" t="n">
-        <v>21625</v>
+        <v>22250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1081</v>
+        <v>1112</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45092</v>
+        <v>44320</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>24333</v>
+        <v>16500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1217</v>
+        <v>825</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44798</v>
+        <v>44792</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44708</v>
+        <v>44798</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>80</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44708</v>
+        <v>44533</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>21000</v>
@@ -613,7 +613,7 @@
         <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44761</v>
+        <v>44357</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44798</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44357</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44890</v>
+        <v>44761</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>22250</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1112</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>80</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44792</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44798</v>
+        <v>44893</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1253,7 +1253,7 @@
         <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44792</v>
+        <v>45092</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>24333</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>1217</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45092</v>
+        <v>44708</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>24333</v>
+        <v>20500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1217</v>
+        <v>1025</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44357</v>
+        <v>44890</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>14500</v>
+        <v>22250</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>725</v>
+        <v>1112</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44798</v>
+        <v>44893</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -853,7 +853,7 @@
         <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44798</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44761</v>
+        <v>44357</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44708</v>
+        <v>44533</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44890</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>21000</v>
@@ -1253,7 +1253,7 @@
         <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44761</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20500</v>
+        <v>21625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1025</v>
+        <v>1081</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45092</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>24333</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1217</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44708</v>
+        <v>44798</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>80</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44890</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44893</v>
+        <v>45092</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>21625</v>
+        <v>24333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1081</v>
+        <v>1217</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>22250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44357</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>725</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44533</v>
+        <v>44761</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44792</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>825</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44792</v>
+        <v>44708</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O11" t="n">
         <v>21000</v>
       </c>
-      <c r="O11" t="n">
-        <v>22000</v>
-      </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44893</v>
+        <v>44798</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -533,7 +533,7 @@
         <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44357</v>
+        <v>45092</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>14500</v>
+        <v>24333</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>725</v>
+        <v>1217</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44798</v>
+        <v>44792</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>21000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44533</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>16000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45092</v>
+        <v>44890</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>24333</v>
+        <v>22250</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1217</v>
+        <v>1112</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44890</v>
+        <v>44320</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44533</v>
+        <v>44708</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N8" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P8" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44761</v>
+        <v>44357</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>725</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44792</v>
+        <v>44893</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
@@ -1173,7 +1173,7 @@
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44708</v>
+        <v>44761</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44798</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -533,7 +533,7 @@
         <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45092</v>
+        <v>44357</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>24333</v>
+        <v>14500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1217</v>
+        <v>725</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44792</v>
+        <v>44798</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N4" t="n">
         <v>21000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>16000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44890</v>
+        <v>45092</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>22250</v>
+        <v>24333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1112</v>
+        <v>1217</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44890</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>16500</v>
+        <v>22250</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44708</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44357</v>
+        <v>44761</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>44792</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>21000</v>
@@ -1173,7 +1173,7 @@
         <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44761</v>
+        <v>44708</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44798</v>
+        <v>44893</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -533,7 +533,7 @@
         <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>21625</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45092</v>
+        <v>44798</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>24333</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1217</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44792</v>
+        <v>44357</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>14500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>725</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44533</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N5" t="n">
         <v>16000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44320</v>
+        <v>44708</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P7" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>825</v>
+        <v>1025</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44708</v>
+        <v>44890</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1010,10 +1010,10 @@
         <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P8" t="n">
-        <v>20500</v>
+        <v>22250</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1025</v>
+        <v>1112</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44357</v>
+        <v>44761</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P9" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>725</v>
+        <v>1025</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44893</v>
+        <v>45092</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>21625</v>
+        <v>24333</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1081</v>
+        <v>1217</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44761</v>
+        <v>44792</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O11" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44893</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>80</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>21625</v>
+        <v>16500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1081</v>
+        <v>825</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44357</v>
+        <v>44792</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>725</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44893</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>80</v>
       </c>
       <c r="N5" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>16500</v>
+        <v>21625</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>825</v>
+        <v>1081</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44533</v>
+        <v>44357</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44890</v>
+        <v>44533</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O8" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>22250</v>
+        <v>16500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1112</v>
+        <v>825</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44761</v>
+        <v>45092</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20500</v>
+        <v>24333</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1025</v>
+        <v>1217</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45092</v>
+        <v>44890</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>24333</v>
+        <v>22250</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1217</v>
+        <v>1112</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44792</v>
+        <v>44761</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O11" t="n">
         <v>21000</v>
       </c>
-      <c r="O11" t="n">
-        <v>22000</v>
-      </c>
       <c r="P11" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
